--- a/ope.ed.gov/2007/disciplinary-actions-public-property-virginia-colleges-and-universities-crime-2007.xlsx
+++ b/ope.ed.gov/2007/disciplinary-actions-public-property-virginia-colleges-and-universities-crime-2007.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Disciplinary_Actions_Public_Pro" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="disciplinary-actions-public-pro" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Disciplinary Actions - Public Property</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1453,34 +1450,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2007.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>1044.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1491,13 +1512,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>1044.0</v>
@@ -1520,13 +1541,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
         <v>1044.0</v>
@@ -1546,19 +1567,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B5">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>1044.0</v>
+        <v>656.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1578,13 +1599,13 @@
         <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>656.0</v>
@@ -1604,19 +1625,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
-        <v>656.0</v>
+        <v>4147.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -1636,13 +1657,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>4147.0</v>
@@ -1665,13 +1686,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>4147.0</v>
@@ -1694,13 +1715,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>4147.0</v>
@@ -1723,13 +1744,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>4147.0</v>
@@ -1752,13 +1773,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>4147.0</v>
@@ -1781,13 +1802,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
         <v>4147.0</v>
@@ -1810,13 +1831,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
         <v>4147.0</v>
@@ -1839,13 +1860,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
         <v>4147.0</v>
@@ -1868,13 +1889,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
         <v>4147.0</v>
@@ -1897,13 +1918,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
         <v>4147.0</v>
@@ -1926,13 +1947,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
         <v>4147.0</v>
@@ -1952,19 +1973,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B19">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>4147.0</v>
+        <v>340.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1981,19 +2002,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B20">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
-        <v>340.0</v>
+        <v>1007.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -2010,19 +2031,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B21">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>1007.0</v>
+        <v>865.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -2039,19 +2060,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231420.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>865.0</v>
+        <v>1677.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -2071,13 +2092,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
         <v>1677.0</v>
@@ -2100,13 +2121,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
         <v>1677.0</v>
@@ -2126,19 +2147,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B25">
-        <v>449931.0</v>
+        <v>448257.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>1677.0</v>
+        <v>18.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -2155,19 +2176,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B26">
-        <v>448257.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>18.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -2184,19 +2205,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B27">
-        <v>427973.0</v>
+        <v>445762.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F27">
-        <v>189.0</v>
+        <v>130.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2213,19 +2234,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B28">
-        <v>445762.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F28">
-        <v>130.0</v>
+        <v>133.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2242,19 +2263,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B29">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F29">
-        <v>133.0</v>
+        <v>60.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2271,19 +2292,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>60.0</v>
+        <v>4084.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2300,19 +2321,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B31">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>4084.0</v>
+        <v>793.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2329,19 +2350,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>793.0</v>
+        <v>394.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2358,19 +2379,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233356.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>394.0</v>
+        <v>1541.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2387,19 +2408,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B34">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>1541.0</v>
+        <v>516.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2416,19 +2437,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B35">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>516.0</v>
+        <v>499.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2445,19 +2466,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B36">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>499.0</v>
+        <v>185.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2474,19 +2495,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B37">
-        <v>441858.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>185.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2503,19 +2524,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>43.0</v>
+        <v>4926.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2535,13 +2556,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
         <v>4926.0</v>
@@ -2564,13 +2585,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
         <v>4926.0</v>
@@ -2593,13 +2614,13 @@
         <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
         <v>4926.0</v>
@@ -2619,19 +2640,16 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B42">
-        <v>231697.0</v>
+        <v>451592.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
-      </c>
-      <c s="1" r="F42">
-        <v>4926.0</v>
+        <v>90</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2648,16 +2666,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B43">
-        <v>451592.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c s="1" r="F43">
+        <v>290.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2674,19 +2695,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B44">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>290.0</v>
+        <v>224.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2703,19 +2724,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B45">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>224.0</v>
+        <v>283.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2732,19 +2753,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B46">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>283.0</v>
+        <v>186.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2761,19 +2782,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B47">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>186.0</v>
+        <v>80.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2790,19 +2811,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B48">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
-        <v>80.0</v>
+        <v>1423.0</v>
       </c>
       <c s="1" r="G48">
         <v>0.0</v>
@@ -2819,19 +2840,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B49">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>1423.0</v>
+        <v>140.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2848,19 +2869,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B50">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
-        <v>140.0</v>
+        <v>4884.0</v>
       </c>
       <c s="1" r="G50">
         <v>0.0</v>
@@ -2877,19 +2898,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B51">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
-        <v>4884.0</v>
+        <v>7795.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2906,19 +2927,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B52">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
-        <v>7795.0</v>
+        <v>59.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2935,19 +2956,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B53">
-        <v>377403.0</v>
+        <v>446206.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
-        <v>59.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2964,19 +2985,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B54">
-        <v>446206.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
-        <v>20.0</v>
+        <v>1295.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2993,19 +3014,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B55">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
-        <v>1295.0</v>
+        <v>4016.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3022,19 +3043,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B56">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>4016.0</v>
+        <v>111.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -3051,19 +3072,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B57">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>111.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -3083,13 +3104,13 @@
         <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F58">
         <v>739.0</v>
@@ -3109,19 +3130,16 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B59">
-        <v>440536.0</v>
+        <v>451617.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
-      </c>
-      <c s="1" r="F59">
-        <v>739.0</v>
+        <v>124</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3138,16 +3156,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B60">
-        <v>451617.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c s="1" r="F60">
+        <v>1234.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -3164,19 +3185,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B61">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>1234.0</v>
+        <v>907.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3193,19 +3214,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B62">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>907.0</v>
+        <v>725.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
@@ -3222,19 +3243,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B63">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>725.0</v>
+        <v>845.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -3254,13 +3275,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
         <v>845.0</v>
@@ -3280,19 +3301,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B65">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>845.0</v>
+        <v>8122.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3312,13 +3333,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
         <v>8122.0</v>
@@ -3341,13 +3362,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
         <v>8122.0</v>
@@ -3370,13 +3391,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
         <v>8122.0</v>
@@ -3399,13 +3420,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
         <v>8122.0</v>
@@ -3428,13 +3449,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
         <v>8122.0</v>
@@ -3457,13 +3478,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
         <v>8122.0</v>
@@ -3486,13 +3507,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
         <v>8122.0</v>
@@ -3515,13 +3536,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
         <v>8122.0</v>
@@ -3544,13 +3565,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
         <v>8122.0</v>
@@ -3573,13 +3594,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
         <v>8122.0</v>
@@ -3602,13 +3623,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
         <v>8122.0</v>
@@ -3628,19 +3649,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B77">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
-        <v>8122.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -3657,19 +3678,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B78">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
-        <v>645.0</v>
+        <v>1026.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -3686,19 +3707,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B79">
-        <v>232025.0</v>
+        <v>444282.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
-        <v>1026.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -3715,19 +3736,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B80">
-        <v>444282.0</v>
+        <v>450599.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
-        <v>88.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G80">
         <v>0.0</v>
@@ -3744,19 +3765,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B81">
-        <v>450599.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
-        <v>189.0</v>
+        <v>259.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -3773,19 +3794,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B82">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
-        <v>259.0</v>
+        <v>178.0</v>
       </c>
       <c s="1" r="G82">
         <v>0.0</v>
@@ -3802,19 +3823,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B83">
-        <v>438647.0</v>
+        <v>445470.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
-        <v>178.0</v>
+        <v>375.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -3831,19 +3852,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B84">
-        <v>445470.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
-        <v>375.0</v>
+        <v>123.0</v>
       </c>
       <c s="1" r="G84">
         <v>0.0</v>
@@ -3860,19 +3881,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B85">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
-        <v>123.0</v>
+        <v>1233.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -3889,19 +3910,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B86">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
-        <v>1233.0</v>
+        <v>270.0</v>
       </c>
       <c s="1" r="G86">
         <v>0.0</v>
@@ -3918,19 +3939,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B87">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
-        <v>270.0</v>
+        <v>147.0</v>
       </c>
       <c s="1" r="G87">
         <v>0.0</v>
@@ -3947,28 +3968,28 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B88">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
-        <v>147.0</v>
+        <v>30276.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
       </c>
       <c s="1" r="H88">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I88">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="89">
@@ -3976,28 +3997,28 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B89">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>30276.0</v>
+        <v>5899.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
       </c>
       <c s="1" r="H89">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I89">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -4008,13 +4029,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
         <v>5899.0</v>
@@ -4037,13 +4058,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
         <v>5899.0</v>
@@ -4063,19 +4084,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B92">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
-        <v>5899.0</v>
+        <v>180.0</v>
       </c>
       <c s="1" r="G92">
         <v>0.0</v>
@@ -4092,19 +4113,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B93">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
-        <v>180.0</v>
+        <v>1122.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -4121,19 +4142,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>1122.0</v>
+        <v>5658.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -4153,13 +4174,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
         <v>5658.0</v>
@@ -4182,13 +4203,13 @@
         <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
         <v>5658.0</v>
@@ -4208,19 +4229,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
-        <v>5658.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -4237,19 +4258,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B98">
-        <v>431266.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
-        <v>89.0</v>
+        <v>255.0</v>
       </c>
       <c s="1" r="G98">
         <v>0.0</v>
@@ -4266,19 +4287,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B99">
-        <v>377421.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
-        <v>255.0</v>
+        <v>1049.0</v>
       </c>
       <c s="1" r="G99">
         <v>0.0</v>
@@ -4295,19 +4316,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B100">
-        <v>232308.0</v>
+        <v>445869.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
-        <v>1049.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -4324,19 +4345,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B101">
-        <v>445869.0</v>
+        <v>441964.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
-        <v>43.0</v>
+        <v>377.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -4353,19 +4374,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B102">
-        <v>441964.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
-        <v>377.0</v>
+        <v>780.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -4382,19 +4403,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B103">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
-        <v>780.0</v>
+        <v>590.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -4411,19 +4432,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B104">
-        <v>437051.0</v>
+        <v>441955.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
-        <v>590.0</v>
+        <v>583.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -4440,19 +4461,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B105">
-        <v>441955.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
-        <v>583.0</v>
+        <v>12557.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -4472,13 +4493,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
         <v>12557.0</v>
@@ -4501,13 +4522,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
         <v>12557.0</v>
@@ -4527,19 +4548,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B108">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
-        <v>12557.0</v>
+        <v>17918.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
@@ -4559,13 +4580,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
         <v>17918.0</v>
@@ -4588,13 +4609,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
         <v>17918.0</v>
@@ -4617,13 +4638,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
         <v>17918.0</v>
@@ -4643,19 +4664,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B112">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
-        <v>17918.0</v>
+        <v>971.0</v>
       </c>
       <c s="1" r="G112">
         <v>0.0</v>
@@ -4672,19 +4693,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B113">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>971.0</v>
+        <v>8082.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -4704,13 +4725,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
         <v>8082.0</v>
@@ -4733,13 +4754,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
         <v>8082.0</v>
@@ -4759,19 +4780,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B116">
-        <v>232450.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
-        <v>8082.0</v>
+        <v>27068.0</v>
       </c>
       <c s="1" r="G116">
         <v>0.0</v>
@@ -4788,19 +4809,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B117">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
-        <v>27068.0</v>
+        <v>4727.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -4809,7 +4830,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I117">
-        <v>0.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="118">
@@ -4817,19 +4838,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B118">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
-        <v>4727.0</v>
+        <v>5655.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -4838,7 +4859,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I118">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -4849,13 +4870,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
         <v>5655.0</v>
@@ -4875,19 +4896,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B120">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
-        <v>5655.0</v>
+        <v>2490.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -4904,19 +4925,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B121">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
-        <v>2490.0</v>
+        <v>175.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -4933,19 +4954,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B122">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
-        <v>175.0</v>
+        <v>1685.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -4962,19 +4983,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B123">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
-        <v>1685.0</v>
+        <v>3609.0</v>
       </c>
       <c s="1" r="G123">
         <v>0.0</v>
@@ -4991,19 +5012,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B124">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
-        <v>3609.0</v>
+        <v>661.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -5023,13 +5044,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="F125">
         <v>661.0</v>
@@ -5052,13 +5073,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c s="1" r="F126">
         <v>661.0</v>
@@ -5081,13 +5102,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
         <v>661.0</v>
@@ -5107,19 +5128,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B128">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="1" r="F128">
-        <v>661.0</v>
+        <v>876.0</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -5139,13 +5160,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c s="1" r="F129">
         <v>876.0</v>
@@ -5168,13 +5189,13 @@
         <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
         <v>876.0</v>
@@ -5194,19 +5215,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B131">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
-        <v>876.0</v>
+        <v>225.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -5223,19 +5244,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B132">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
-        <v>225.0</v>
+        <v>3017.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -5252,19 +5273,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B133">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>3017.0</v>
+        <v>4586.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -5281,19 +5302,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B134">
-        <v>232867.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
-        <v>4586.0</v>
+        <v>6155.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -5302,7 +5323,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I134">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="135">
@@ -5310,19 +5331,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B135">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
-        <v>6155.0</v>
+        <v>41266.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -5331,7 +5352,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I135">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -5342,13 +5363,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
         <v>41266.0</v>
@@ -5371,13 +5392,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
         <v>41266.0</v>
@@ -5400,13 +5421,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
         <v>41266.0</v>
@@ -5429,13 +5450,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
         <v>41266.0</v>
@@ -5458,13 +5479,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
         <v>41266.0</v>
@@ -5484,28 +5505,28 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B141">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="1" r="F141">
-        <v>41266.0</v>
+        <v>22287.0</v>
       </c>
       <c s="1" r="G141">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H141">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="I141">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="142">
@@ -5513,28 +5534,28 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B142">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c s="1" r="F142">
-        <v>22287.0</v>
+        <v>2948.0</v>
       </c>
       <c s="1" r="G142">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H142">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I142">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -5542,19 +5563,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B143">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
-        <v>2948.0</v>
+        <v>1544.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -5574,13 +5595,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
         <v>1544.0</v>
@@ -5600,19 +5621,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
-        <v>1544.0</v>
+        <v>4674.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -5629,19 +5650,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F146">
-        <v>4674.0</v>
+        <v>9122.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -5658,19 +5679,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B147">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
-        <v>9122.0</v>
+        <v>656.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -5687,19 +5708,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B148">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
-        <v>656.0</v>
+        <v>1176.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -5716,19 +5737,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>1176.0</v>
+        <v>3206.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -5748,13 +5769,13 @@
         <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
         <v>3206.0</v>
@@ -5774,19 +5795,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B151">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
-        <v>3206.0</v>
+        <v>4115.0</v>
       </c>
       <c s="1" r="G151">
         <v>0.0</v>
@@ -5803,19 +5824,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B152">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
-        <v>4115.0</v>
+        <v>1402.0</v>
       </c>
       <c s="1" r="G152">
         <v>0.0</v>
@@ -5832,19 +5853,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B153">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
-        <v>1402.0</v>
+        <v>358.0</v>
       </c>
       <c s="1" r="G153">
         <v>0.0</v>
@@ -5861,19 +5882,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B154">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
-        <v>358.0</v>
+        <v>286.0</v>
       </c>
       <c s="1" r="G154">
         <v>0.0</v>
@@ -5890,19 +5911,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
-        <v>286.0</v>
+        <v>2006.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -5919,19 +5940,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B156">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>2006.0</v>
+        <v>178.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -5948,19 +5969,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B157">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>178.0</v>
+        <v>700.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -5977,19 +5998,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B158">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c s="1" r="F158">
-        <v>700.0</v>
+        <v>610.0</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -6006,19 +6027,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B159">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c s="1" r="F159">
-        <v>610.0</v>
+        <v>345.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -6035,19 +6056,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B160">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c s="1" r="F160">
-        <v>345.0</v>
+        <v>3393.0</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -6064,19 +6085,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B161">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c s="1" r="F161">
-        <v>3393.0</v>
+        <v>408.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
@@ -6093,19 +6114,16 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B162">
-        <v>261931.0</v>
+        <v>451608.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
-      </c>
-      <c s="1" r="F162">
-        <v>408.0</v>
+        <v>330</v>
       </c>
       <c s="1" r="G162">
         <v>0.0</v>
@@ -6122,16 +6140,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B163">
-        <v>451608.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c s="1" r="F163">
+        <v>701.0</v>
       </c>
       <c s="1" r="G163">
         <v>0.0</v>
@@ -6148,19 +6169,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B164">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
-        <v>701.0</v>
+        <v>172.0</v>
       </c>
       <c s="1" r="G164">
         <v>0.0</v>
@@ -6177,19 +6198,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B165">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
-        <v>172.0</v>
+        <v>5255.0</v>
       </c>
       <c s="1" r="G165">
         <v>0.0</v>
@@ -6206,19 +6227,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B166">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
-        <v>5255.0</v>
+        <v>3716.0</v>
       </c>
       <c s="1" r="G166">
         <v>0.0</v>
@@ -6235,19 +6256,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B167">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
-        <v>3716.0</v>
+        <v>113.0</v>
       </c>
       <c s="1" r="G167">
         <v>0.0</v>
@@ -6264,19 +6285,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B168">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
-        <v>113.0</v>
+        <v>36.0</v>
       </c>
       <c s="1" r="G168">
         <v>0.0</v>
@@ -6293,19 +6314,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B169">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>36.0</v>
+        <v>860.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -6322,19 +6343,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B170">
-        <v>438498.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
-        <v>860.0</v>
+        <v>50.0</v>
       </c>
       <c s="1" r="G170">
         <v>0.0</v>
@@ -6351,19 +6372,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B171">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
-        <v>50.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="G171">
         <v>0.0</v>
@@ -6380,19 +6401,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B172">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>17.0</v>
+        <v>815.0</v>
       </c>
       <c s="1" r="G172">
         <v>0.0</v>
@@ -6409,19 +6430,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>815.0</v>
+        <v>39.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -6438,19 +6459,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233286.0</v>
+        <v>444884.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>39.0</v>
+        <v>20.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -6467,19 +6488,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B175">
-        <v>444884.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>20.0</v>
+        <v>1648.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -6496,19 +6517,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B176">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
-        <v>1648.0</v>
+        <v>1803.0</v>
       </c>
       <c s="1" r="G176">
         <v>0.0</v>
@@ -6525,19 +6546,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B177">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
-        <v>1803.0</v>
+        <v>9368.0</v>
       </c>
       <c s="1" r="G177">
         <v>0.0</v>
@@ -6554,19 +6575,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B178">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
-        <v>9368.0</v>
+        <v>25857.0</v>
       </c>
       <c s="1" r="G178">
         <v>0.0</v>
@@ -6586,13 +6607,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
         <v>25857.0</v>
@@ -6615,13 +6636,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
         <v>25857.0</v>
@@ -6644,13 +6665,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
         <v>25857.0</v>
@@ -6673,13 +6694,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
         <v>25857.0</v>
@@ -6699,19 +6720,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
-        <v>25857.0</v>
+        <v>157.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -6728,19 +6749,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B184">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
-        <v>157.0</v>
+        <v>370.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -6760,13 +6781,13 @@
         <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
         <v>370.0</v>
@@ -6786,19 +6807,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B186">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
-        <v>370.0</v>
+        <v>5001.0</v>
       </c>
       <c s="1" r="G186">
         <v>0.0</v>
@@ -6807,7 +6828,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I186">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="187">
@@ -6815,19 +6836,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B187">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
-        <v>5001.0</v>
+        <v>534.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -6836,7 +6857,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I187">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -6844,19 +6865,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B188">
-        <v>442189.0</v>
+        <v>446756.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
-        <v>534.0</v>
+        <v>321.0</v>
       </c>
       <c s="1" r="G188">
         <v>0.0</v>
@@ -6873,19 +6894,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B189">
-        <v>446756.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
-        <v>321.0</v>
+        <v>4324.0</v>
       </c>
       <c s="1" r="G189">
         <v>0.0</v>
@@ -6902,28 +6923,28 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B190">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
-        <v>4324.0</v>
+        <v>72.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
       </c>
       <c s="1" r="H190">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="I190">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="191">
@@ -6931,28 +6952,28 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B191">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
-        <v>72.0</v>
+        <v>24257.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
       </c>
       <c s="1" r="H191">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I191">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -6963,13 +6984,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
         <v>24257.0</v>
@@ -6992,13 +7013,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
         <v>24257.0</v>
@@ -7021,13 +7042,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C194">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c s="1" r="D194">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E194">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c s="1" r="F194">
         <v>24257.0</v>
@@ -7050,13 +7071,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C195">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c s="1" r="D195">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E195">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c s="1" r="F195">
         <v>24257.0</v>
@@ -7079,13 +7100,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C196">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c s="1" r="D196">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E196">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c s="1" r="F196">
         <v>24257.0</v>
@@ -7105,19 +7126,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B197">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C197">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c s="1" r="D197">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E197">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c s="1" r="F197">
-        <v>24257.0</v>
+        <v>23.0</v>
       </c>
       <c s="1" r="G197">
         <v>0.0</v>
@@ -7134,19 +7155,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B198">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C198">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c s="1" r="D198">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E198">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c s="1" r="F198">
-        <v>23.0</v>
+        <v>31700.0</v>
       </c>
       <c s="1" r="G198">
         <v>0.0</v>
@@ -7166,13 +7187,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C199">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c s="1" r="D199">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E199">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c s="1" r="F199">
         <v>31700.0</v>
@@ -7192,19 +7213,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B200">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C200">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c s="1" r="D200">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E200">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c s="1" r="F200">
-        <v>31700.0</v>
+        <v>2580.0</v>
       </c>
       <c s="1" r="G200">
         <v>0.0</v>
@@ -7221,19 +7242,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B201">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C201">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c s="1" r="D201">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E201">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c s="1" r="F201">
-        <v>2580.0</v>
+        <v>224.0</v>
       </c>
       <c s="1" r="G201">
         <v>0.0</v>
@@ -7250,19 +7271,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B202">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C202">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c s="1" r="D202">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E202">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c s="1" r="F202">
-        <v>224.0</v>
+        <v>1378.0</v>
       </c>
       <c s="1" r="G202">
         <v>0.0</v>
@@ -7279,19 +7300,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B203">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C203">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c s="1" r="D203">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E203">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c s="1" r="F203">
-        <v>1378.0</v>
+        <v>29898.0</v>
       </c>
       <c s="1" r="G203">
         <v>0.0</v>
@@ -7300,7 +7321,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I203">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="204">
@@ -7311,13 +7332,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C204">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c s="1" r="D204">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E204">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c s="1" r="F204">
         <v>29898.0</v>
@@ -7329,7 +7350,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I204">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
@@ -7340,13 +7361,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C205">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c s="1" r="D205">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E205">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c s="1" r="F205">
         <v>29898.0</v>
@@ -7369,13 +7390,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C206">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c s="1" r="D206">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E206">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c s="1" r="F206">
         <v>29898.0</v>
@@ -7398,13 +7419,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C207">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c s="1" r="D207">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E207">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c s="1" r="F207">
         <v>29898.0</v>
@@ -7427,13 +7448,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C208">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c s="1" r="D208">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E208">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c s="1" r="F208">
         <v>29898.0</v>
@@ -7456,13 +7477,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C209">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c s="1" r="D209">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E209">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c s="1" r="F209">
         <v>29898.0</v>
@@ -7485,13 +7506,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C210">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c s="1" r="D210">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E210">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c s="1" r="F210">
         <v>29898.0</v>
@@ -7511,19 +7532,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B211">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C211">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c s="1" r="D211">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E211">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c s="1" r="F211">
-        <v>29898.0</v>
+        <v>105.0</v>
       </c>
       <c s="1" r="G211">
         <v>0.0</v>
@@ -7540,19 +7561,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B212">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C212">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c s="1" r="D212">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E212">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c s="1" r="F212">
-        <v>105.0</v>
+        <v>144.0</v>
       </c>
       <c s="1" r="G212">
         <v>0.0</v>
@@ -7569,19 +7590,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B213">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C213">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c s="1" r="D213">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E213">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c s="1" r="F213">
-        <v>144.0</v>
+        <v>4720.0</v>
       </c>
       <c s="1" r="G213">
         <v>0.0</v>
@@ -7598,19 +7619,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B214">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C214">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c s="1" r="D214">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E214">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c s="1" r="F214">
-        <v>4720.0</v>
+        <v>1535.0</v>
       </c>
       <c s="1" r="G214">
         <v>0.0</v>
@@ -7627,19 +7648,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B215">
-        <v>234164.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C215">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c s="1" r="D215">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E215">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c s="1" r="F215">
-        <v>1535.0</v>
+        <v>217.0</v>
       </c>
       <c s="1" r="G215">
         <v>0.0</v>
@@ -7656,19 +7677,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B216">
-        <v>234137.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C216">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c s="1" r="D216">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E216">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c s="1" r="F216">
-        <v>217.0</v>
+        <v>1433.0</v>
       </c>
       <c s="1" r="G216">
         <v>0.0</v>
@@ -7685,19 +7706,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B217">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C217">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c s="1" r="D217">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E217">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c s="1" r="F217">
-        <v>1433.0</v>
+        <v>8653.0</v>
       </c>
       <c s="1" r="G217">
         <v>0.0</v>
@@ -7714,19 +7735,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B218">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C218">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c s="1" r="D218">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E218">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c s="1" r="F218">
-        <v>8653.0</v>
+        <v>79.0</v>
       </c>
       <c s="1" r="G218">
         <v>0.0</v>
@@ -7743,19 +7764,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B219">
-        <v>234191.0</v>
+        <v>445683.0</v>
       </c>
       <c t="s" s="1" r="C219">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c s="1" r="D219">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E219">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c s="1" r="F219">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c s="1" r="G219">
         <v>0.0</v>
@@ -7772,19 +7793,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B220">
-        <v>445683.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C220">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c s="1" r="D220">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E220">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c s="1" r="F220">
-        <v>74.0</v>
+        <v>2181.0</v>
       </c>
       <c s="1" r="G220">
         <v>0.0</v>
@@ -7801,19 +7822,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B221">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C221">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c s="1" r="D221">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E221">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c s="1" r="F221">
-        <v>2181.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G221">
         <v>0.0</v>
@@ -7830,19 +7851,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B222">
-        <v>234225.0</v>
+        <v>448628.0</v>
       </c>
       <c t="s" s="1" r="C222">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c s="1" r="D222">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E222">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c s="1" r="F222">
-        <v>110.0</v>
+        <v>254.0</v>
       </c>
       <c s="1" r="G222">
         <v>0.0</v>
@@ -7859,19 +7880,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B223">
-        <v>448628.0</v>
+        <v>447069.0</v>
       </c>
       <c t="s" s="1" r="C223">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c s="1" r="D223">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E223">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c s="1" r="F223">
-        <v>254.0</v>
+        <v>219.0</v>
       </c>
       <c s="1" r="G223">
         <v>0.0</v>
@@ -7888,19 +7909,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B224">
-        <v>447069.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C224">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c s="1" r="D224">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E224">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c s="1" r="F224">
-        <v>219.0</v>
+        <v>280.0</v>
       </c>
       <c s="1" r="G224">
         <v>0.0</v>
@@ -7909,7 +7930,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I224">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="225">
@@ -7917,19 +7938,19 @@
         <v>2007.0</v>
       </c>
       <c s="1" r="B225">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C225">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c s="1" r="D225">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E225">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c s="1" r="F225">
-        <v>280.0</v>
+        <v>3072.0</v>
       </c>
       <c s="1" r="G225">
         <v>0.0</v>
@@ -7938,35 +7959,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I225">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c s="1" r="A226">
-        <v>2007.0</v>
-      </c>
-      <c s="1" r="B226">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C226">
-        <v>456</v>
-      </c>
-      <c s="1" r="D226">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E226">
-        <v>457</v>
-      </c>
-      <c s="1" r="F226">
-        <v>3072.0</v>
-      </c>
-      <c s="1" r="G226">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H226">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I226">
         <v>0.0</v>
       </c>
     </row>
